--- a/biology/Médecine/Thomas_Addis/Thomas_Addis.xlsx
+++ b/biology/Médecine/Thomas_Addis/Thomas_Addis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Addis Jr, né le 27 juillet 1881 et mort le 4 juin 1949, est un médecin et scientifique écossais originaire d'Edinbourg, connu principalement pour ses contributions à la compréhension du phénomène de la coagulation sanguine. Il est aussi un pionnier de la néphrologie, et il a contribué à la compréhension de l'hémophilie. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Addis Jr était le fils de Thomas Chalmers Addis, greffier de l'Inland Revenue (organisme britannique responsable de la collecte des taxes), et de Cornelia Beers-Campbell. Ils se sont mariés en 1880 à Hoboken (Etats-Unis) mais Addis est né à Edinbourg.[réf. nécessaire]
 Il étudie la médecine à Edinbourg et est diplômé d'un doctorat en 1908. 
@@ -546,7 +560,9 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ses études sur l'hémophilie ont permis d'établir que un plasma sain pouvait permettre de soigner le manque de plaquettes des personnes hémophiles. De plus, il publie en 1911 la première pathogénèse de l'hémophilie.. 
